--- a/motion.xlsx
+++ b/motion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98531EC-98B2-4BA3-8D3A-90160A4A023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA247C32-1054-4A63-9AE3-F59264F33952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
+    <workbookView xWindow="2235" yWindow="3225" windowWidth="25620" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion_2_fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_1_surprised</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_3_dance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록된 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,22 +86,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion_4_clap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박수치는 모습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion_5_death</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽은척 하는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미션 상호작용 (범죄자용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,39 +98,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mouseLeftClick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조준 (경찰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>격발 (경찰)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion_9_report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_8_shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_7_aim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_6_interact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신고 (범죄자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 상태 그대로 멈추는 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검문 (경찰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenMotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광판 모션 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_3_surprised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_4_fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_5_dance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_6_clap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_7_stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_8_interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_9_inspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_10_shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_11_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +242,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B7D039-68D9-4E2F-954B-12F38BBB96E0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,7 +597,7 @@
     <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +610,11 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,10 +625,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -624,13 +644,16 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -638,13 +661,16 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -652,13 +678,16 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -666,13 +695,16 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
@@ -680,10 +712,13 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -694,61 +729,76 @@
       <c r="D8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/motion.xlsx
+++ b/motion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA247C32-1054-4A63-9AE3-F59264F33952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B65C1-BB5B-4A5B-9BAF-565EEB3010CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3225" windowWidth="25620" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
+    <workbookView xWindow="2655" yWindow="3240" windowWidth="25620" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,39 +130,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion_3_surprised</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_4_fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_5_dance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_6_clap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_7_stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_8_interact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_9_inspect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_10_shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion_11_report</t>
+    <t>motionNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_inspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_clap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_dance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion_surprised</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,9 +253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -583,221 +592,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B7D039-68D9-4E2F-954B-12F38BBB96E0}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="1" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
       <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="b">
+      <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="b">
+      <c r="F5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
       <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="b">
+      <c r="F6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="b">
+      <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/motion.xlsx
+++ b/motion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B65C1-BB5B-4A5B-9BAF-565EEB3010CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FD394-BD85-4253-83A8-6CF0D8A313D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="3240" windowWidth="25620" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
+    <workbookView xWindow="705" yWindow="555" windowWidth="25620" windowHeight="11385" xr2:uid="{F6B44CE3-73E2-402D-AFDC-F592EFF550A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,26 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조준 시 두 팔을 들고 놀라는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조준 시 겁에 질려 웅크린 채 머리를 감싸쥐는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춤 추는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수치는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 상호작용 (범죄자용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,22 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격발 (경찰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 (범죄자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 상태 그대로 멈추는 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검문 (경찰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screenMotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +139,42 @@
   </si>
   <si>
     <t>motion_surprised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all motions are stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interacting minigames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inspecting who looks criminal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot who looks criminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report who looks criminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -663,18 +663,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -688,13 +688,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -728,13 +728,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
@@ -768,19 +768,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="b">
         <v>0</v>
@@ -808,19 +808,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>0</v>
@@ -828,19 +828,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>0</v>
